--- a/biology/Botanique/Aristolochia_amara/Aristolochia_amara.xlsx
+++ b/biology/Botanique/Aristolochia_amara/Aristolochia_amara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristolochia amara est une espèce de liane sub-endémique des Guyanes, appartenant à la famille des Aristolochiaceae.
-Cette espèce était désignée sous le nom de Pareira jaune[4].
-En Guyane, on désigne les Aristolochia sous le nom générique de liane amère (créole - NB : nom partagé avec Tinospora crispa), Ulu'ay, Uluwu'ay (Wayãpi), Bukuti (Palikur), Jarrinha, Urubu-caá (portugais)[5], Luangu tetei (Aluku)[6]. Au Guyana, on les appelle Heart weed, Problem bush (Créole), Warakaba bina (Arawak), Akami (Carib), Murahaka (Warao)[7].
+Cette espèce était désignée sous le nom de Pareira jaune.
+En Guyane, on désigne les Aristolochia sous le nom générique de liane amère (créole - NB : nom partagé avec Tinospora crispa), Ulu'ay, Uluwu'ay (Wayãpi), Bukuti (Palikur), Jarrinha, Urubu-caá (portugais), Luangu tetei (Aluku). Au Guyana, on les appelle Heart weed, Problem bush (Créole), Warakaba bina (Arawak), Akami (Carib), Murahaka (Warao).
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aristolochia amara a été décrit à partir de matériel stérile (cf. holotype[8] et isotype[9]) et correspond certainement au nom correct d'une autre espèce décrite ultérieurement[10] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aristolochia amara a été décrit à partir de matériel stérile (cf. holotype et isotype) et correspond certainement au nom correct d'une autre espèce décrite ultérieurement : 
 Aristolochia bukuti Poncy 1989,
-A. stahelii O.C.Schmidt 1938 (hypothèse la plus probable au vu de la localisation des collectes d'Aublet)[3],
+A. stahelii O.C.Schmidt 1938 (hypothèse la plus probable au vu de la localisation des collectes d'Aublet),
 A. cremersii Poncy,
-A. daemoninoxia Masters[11].</t>
+A. daemoninoxia Masters.</t>
         </is>
       </c>
     </row>
@@ -547,10 +561,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les racines et sarments sont très amers d'après Aublet[4].
-En Guyane, les Aristolochia forestières sont réputées comme fébrifuge et antidiabétique chez les Créoles de la région de Saint-Georges de l'Oyapock. Les Wayãpi en font un remède contre la diarrhée. Les Palikur l'emploient pour soigner le mal de cœur, le mal de foie[5] et pour soulager les effets de la fatigue[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les racines et sarments sont très amers d'après Aublet.
+En Guyane, les Aristolochia forestières sont réputées comme fébrifuge et antidiabétique chez les Créoles de la région de Saint-Georges de l'Oyapock. Les Wayãpi en font un remède contre la diarrhée. Les Palikur l'emploient pour soigner le mal de cœur, le mal de foie et pour soulager les effets de la fatigue.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « ABUTA (amara) folio levi, cordi-formi, ligno flaveſcente. (Tabula 251.)
 Frutex plures caules, ſarmentoſos, ramoſos, volubiles, ſuprà arbores, è radice craſſâ, fibroſâ, luteâ, emittens. Lignum caulium &amp; ramorum luteum, amarum. Folia alterna, ampla, cordata, nervoſa, glabra, ſupernè viridia, infernè flaveſcentia, petiolata, petiole longo, craſſo, recurvo. »
 « LE PAREIRA BRAVA jaune. (PLANCHE 251.)
